--- a/prediccion_test_Estadistica_2019_1.xlsx
+++ b/prediccion_test_Estadistica_2019_1.xlsx
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>3.781392040147491E-05</v>
+        <v>2.458785809966724E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -447,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>0.9353062784746102</v>
+        <v>0.9526972343090035</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1814514720924351</v>
+        <v>0.1925414591781511</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9697731052547023</v>
+        <v>0.9797915664802697</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>0.9886522575309622</v>
+        <v>0.9932315641168488</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.9837478645288655</v>
+        <v>0.989893554295268</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>0.9156129270721485</v>
+        <v>0.9363251759813538</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>0.5607781490631958</v>
+        <v>0.5964085562562154</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>0.8145770680592209</v>
+        <v>0.8463263946193638</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>0.1019007936671767</v>
+        <v>0.1063007846266277</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>0.9245431125907009</v>
+        <v>0.9438134200617083</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>0.4020244976592071</v>
+        <v>0.4302259976033963</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>0.9781959248318036</v>
+        <v>0.9859688449202149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2">
-        <v>0.053514721376278</v>
+        <v>0.05443143314613375</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -643,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3">
-        <v>0.9512291773223036</v>
+        <v>0.965509146978353</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -657,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>0.9820495657978817</v>
+        <v>0.9887076075568939</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>0.9470376586899714</v>
+        <v>0.9621791330125767</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>0.989792377365063</v>
+        <v>0.9939857946317532</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>0.8588940608336206</v>
+        <v>0.8868109552286683</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>0.2712430303184087</v>
+        <v>0.2899011699607903</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>0.958815319565581</v>
+        <v>0.9714478547737025</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>0.854358482823158</v>
+        <v>0.8827306738124052</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>0.6153577278815512</v>
+        <v>0.6521062380945177</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -783,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>0.9512291773223036</v>
+        <v>0.965509146978353</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>0.417612487468055</v>
+        <v>0.4467753221343606</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>0.6153577278815512</v>
+        <v>0.6521062380945177</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>0.2712430303184087</v>
+        <v>0.2899011699607903</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>0.2712430303184087</v>
+        <v>0.2899011699607903</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="3">
-        <v>0.9622328391659665</v>
+        <v>0.9740822731668215</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="2">
-        <v>0.5607781490631958</v>
+        <v>0.5964085562562154</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="3">
-        <v>0.9245431125907009</v>
+        <v>0.9438134200617083</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>0.9353062784746102</v>
+        <v>0.9526972343090035</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>0.7625151020293195</v>
+        <v>0.7972579577769634</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>0.803664845959327</v>
+        <v>0.8361650764835771</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="2">
-        <v>0.5050161362668957</v>
+        <v>0.5386807346892822</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>0.980202204040713</v>
+        <v>0.9874025178332472</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -965,7 +965,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>0.902502411196318</v>
+        <v>0.9251603148724189</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -979,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>0.7686685079538191</v>
+        <v>0.8031315054537883</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="3">
-        <v>0.8879565392906499</v>
+        <v>0.9125605757072628</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="3">
-        <v>0.7625151020293195</v>
+        <v>0.7972579577769634</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2">
-        <v>0.6456198005112008</v>
+        <v>0.6826012679644566</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1035,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="3">
-        <v>0.8588940608336206</v>
+        <v>0.8868109552286683</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="3">
-        <v>0.8954125653169235</v>
+        <v>0.9190453450142089</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1062,8 +1062,8 @@
       <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="2">
-        <v>0.7102089292754747</v>
+      <c r="D47" s="3">
+        <v>0.7466300752718955</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="3">
-        <v>0.9874030593433198</v>
+        <v>0.9923949524401126</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="3">
-        <v>0.9551512566989823</v>
+        <v>0.9685944021920545</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="3">
-        <v>0.8145770680592209</v>
+        <v>0.8463263946193638</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1133,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2">
-        <v>0.7033093571865587</v>
+        <v>0.73986509824985</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="2">
-        <v>0.5765391844893388</v>
+        <v>0.6125793061136797</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="3">
-        <v>0.8145770680592209</v>
+        <v>0.8463263946193638</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="3">
-        <v>0.8497259044546377</v>
+        <v>0.8785472898327068</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="3">
-        <v>0.9512291773223036</v>
+        <v>0.965509146978353</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1203,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="3">
-        <v>0.803664845959327</v>
+        <v>0.8361650764835771</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="3">
-        <v>0.9186737707328323</v>
+        <v>0.9389030359080831</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="3">
-        <v>0.902502411196318</v>
+        <v>0.9251603148724189</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1245,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="3">
-        <v>0.8145770680592209</v>
+        <v>0.8463263946193638</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1259,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="3">
-        <v>0.8588940608336206</v>
+        <v>0.8868109552286683</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="3">
-        <v>0.8145770680592209</v>
+        <v>0.8463263946193638</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="3">
-        <v>0.8497259044546377</v>
+        <v>0.8785472898327068</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="3">
-        <v>0.8251046477379721</v>
+        <v>0.8560614653948543</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="3">
-        <v>0.9638527303813649</v>
+        <v>0.975321270797039</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="3">
-        <v>0.9186737707328323</v>
+        <v>0.9389030359080831</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="3">
-        <v>0.9300839550750335</v>
+        <v>0.9484072046032442</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1357,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="3">
-        <v>0.8879565392906499</v>
+        <v>0.9125605757072628</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1371,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="3">
-        <v>0.9300839550750335</v>
+        <v>0.9484072046032442</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1385,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="3">
-        <v>0.8145770680592209</v>
+        <v>0.8463263946193638</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="3">
-        <v>0.7747319533764569</v>
+        <v>0.8089008320407465</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="3">
-        <v>0.9512291773223036</v>
+        <v>0.965509146978353</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="D74" s="3">
-        <v>0.9512291773223036</v>
+        <v>0.965509146978353</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="3">
-        <v>0.8497259044546377</v>
+        <v>0.8785472898327068</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="3">
-        <v>0.7923721036962524</v>
+        <v>0.8255775256339672</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="3">
-        <v>0.912466444556213</v>
+        <v>0.9336634756160965</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="3">
-        <v>0.8801280205423179</v>
+        <v>0.9056957539399209</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="3">
-        <v>0.803664845959327</v>
+        <v>0.8361650764835771</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1525,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="D80" s="3">
-        <v>0.9930336901001019</v>
+        <v>0.9960727478818722</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="D81" s="3">
-        <v>0.9930336901001019</v>
+        <v>0.9960727478818722</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1553,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="3">
-        <v>0.8801280205423179</v>
+        <v>0.9056957539399209</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="3">
-        <v>0.980202204040713</v>
+        <v>0.9874025178332472</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1581,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3">
-        <v>0.9378012313589812</v>
+        <v>0.9547324079004529</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="D85" s="3">
-        <v>0.9874030593433198</v>
+        <v>0.9923949524401126</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="3">
-        <v>0.9470376586899714</v>
+        <v>0.9621791330125767</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1623,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="3">
-        <v>0.7499432005623822</v>
+        <v>0.785201311892319</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="D88" s="3">
-        <v>0.980202204040713</v>
+        <v>0.9874025178332472</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1651,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="3">
-        <v>0.9156129270721485</v>
+        <v>0.9363251759813538</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1665,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="3">
-        <v>0.9470376586899714</v>
+        <v>0.9621791330125767</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1679,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="3">
-        <v>0.9820495657978817</v>
+        <v>0.9887076075568939</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="3">
-        <v>0.976020558733264</v>
+        <v>0.9843966937076506</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1707,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="D93" s="3">
-        <v>0.9425653890175757</v>
+        <v>0.9585912725863067</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1721,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="3">
-        <v>0.9724175173762095</v>
+        <v>0.9817560841949077</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="3">
-        <v>0.9402204836040656</v>
+        <v>0.9566965390856942</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="3">
-        <v>0.8954125653169235</v>
+        <v>0.9190453450142089</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1763,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="3">
-        <v>0.8801280205423179</v>
+        <v>0.9056957539399209</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="D98" s="3">
-        <v>0.912466444556213</v>
+        <v>0.9336634756160965</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1791,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="3">
-        <v>0.8801280205423179</v>
+        <v>0.9056957539399209</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="D100" s="3">
-        <v>0.9425653890175757</v>
+        <v>0.9585912725863067</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1819,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="3">
-        <v>0.980202204040713</v>
+        <v>0.9874025178332472</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1833,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="3">
-        <v>0.9886522575309622</v>
+        <v>0.9932315641168488</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1847,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="3">
-        <v>0.9930336901001019</v>
+        <v>0.9960727478818722</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="3">
-        <v>0.7923721036962524</v>
+        <v>0.8255775256339672</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="3">
-        <v>0.9953301715589178</v>
+        <v>0.9974858270623279</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1889,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="3">
-        <v>0.9245431125907009</v>
+        <v>0.9438134200617083</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1903,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="3">
-        <v>0.9425653890175757</v>
+        <v>0.9585912725863067</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="3">
-        <v>0.9820495657978817</v>
+        <v>0.9887076075568939</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1931,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="2">
-        <v>0.5765391844893388</v>
+        <v>0.6125793061136797</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1945,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="2">
-        <v>0.5050161362668957</v>
+        <v>0.5386807346892822</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="3">
-        <v>0.9300839550750335</v>
+        <v>0.9484072046032442</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="D112" s="3">
-        <v>0.9988191596609638</v>
+        <v>0.9994566448807296</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="D113" s="3">
-        <v>0.8497259044546377</v>
+        <v>0.8785472898327068</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2001,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="D114" s="3">
-        <v>0.8449961534162698</v>
+        <v>0.8742600877924054</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2015,7 +2015,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="3">
-        <v>0.9988191596609638</v>
+        <v>0.9994566448807296</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="D116" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2043,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="3">
-        <v>0.9781959248318036</v>
+        <v>0.9859688449202149</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2057,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="3">
-        <v>0.9092332274306307</v>
+        <v>0.9309164189178994</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2071,7 +2071,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="3">
-        <v>0.8676752710119495</v>
+        <v>0.8946654300357095</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2085,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="D120" s="2">
-        <v>0.6963355172807584</v>
+        <v>0.7330081984688608</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="D121" s="2">
-        <v>0.6305899133307044</v>
+        <v>0.6674923282749895</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2113,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="D122" s="3">
-        <v>0.9993612708479044</v>
+        <v>0.9997258686136191</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2127,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="D123" s="3">
-        <v>0.9186737707328323</v>
+        <v>0.9389030359080831</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2141,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="3">
-        <v>0.9724175173762095</v>
+        <v>0.9817560841949077</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2155,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="3">
-        <v>0.999664877552721</v>
+        <v>0.9998662696058391</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2169,7 +2169,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="3">
-        <v>0.9820495657978817</v>
+        <v>0.9887076075568939</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2183,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2197,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="D128" s="3">
-        <v>0.9736656455581831</v>
+        <v>0.9826757245983665</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="2">
-        <v>0.6456198005112008</v>
+        <v>0.6826012679644566</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2225,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="D130" s="3">
-        <v>0.9353062784746102</v>
+        <v>0.9526972343090035</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="2">
-        <v>0.2712430303184087</v>
+        <v>0.2899011699607903</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2253,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="3">
-        <v>0.7686685079538191</v>
+        <v>0.8031315054537883</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2267,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="D133" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2281,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="3">
-        <v>0.9512291773223036</v>
+        <v>0.965509146978353</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2295,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>0.5765391844893388</v>
+        <v>0.6125793061136797</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2309,7 +2309,7 @@
         <v>4</v>
       </c>
       <c r="D136" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="D137" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2337,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="D138" s="3">
-        <v>0.9425653890175757</v>
+        <v>0.9585912725863067</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2351,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="3">
-        <v>0.9781959248318036</v>
+        <v>0.9859688449202149</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2365,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="D140" s="3">
-        <v>0.8251046477379721</v>
+        <v>0.8560614653948543</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2379,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="2">
-        <v>0.07618414290171494</v>
+        <v>0.07862401717640022</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2393,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="D142" s="2">
-        <v>0.009808734260457364</v>
+        <v>0.009160288088007174</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2407,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="3">
-        <v>0.9978821203291225</v>
+        <v>0.9989584508589984</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2421,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="D144" s="3">
-        <v>0.9551512566989823</v>
+        <v>0.9685944021920545</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2435,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="D145" s="3">
-        <v>0.9186737707328323</v>
+        <v>0.9389030359080831</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2449,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="D146" s="2">
-        <v>0.2712430303184087</v>
+        <v>0.2899011699607903</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="2">
-        <v>0.2984556761153903</v>
+        <v>0.3192842122353947</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2477,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3">
-        <v>0.9697731052547023</v>
+        <v>0.9797915664802697</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2491,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="D149" s="3">
-        <v>0.902502411196318</v>
+        <v>0.9251603148724189</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2505,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="3">
-        <v>0.9944447885978392</v>
+        <v>0.9969488492601062</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2519,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="D151" s="3">
-        <v>0.8588940608336206</v>
+        <v>0.8868109552286683</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2533,7 +2533,7 @@
         <v>4</v>
       </c>
       <c r="D152" s="3">
-        <v>0.9981351031561139</v>
+        <v>0.9990960755686779</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2547,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="D153" s="3">
-        <v>0.976020558733264</v>
+        <v>0.9843966937076506</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="D154" s="3">
-        <v>0.8588940608336206</v>
+        <v>0.8868109552286683</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2575,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="3">
-        <v>0.9300839550750335</v>
+        <v>0.9484072046032442</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2589,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="3">
-        <v>0.9944447885978392</v>
+        <v>0.9969488492601062</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2603,7 +2603,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="3">
-        <v>0.9470376586899714</v>
+        <v>0.9621791330125767</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2617,7 +2617,7 @@
         <v>4</v>
       </c>
       <c r="D158" s="3">
-        <v>0.8145770680592209</v>
+        <v>0.8463263946193638</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="3">
-        <v>0.902502411196318</v>
+        <v>0.9251603148724189</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="D160" s="3">
-        <v>0.9944447885978392</v>
+        <v>0.9969488492601062</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2659,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="D161" s="3">
-        <v>0.9669219190424031</v>
+        <v>0.9776505450131342</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2673,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="D162" s="3">
-        <v>0.9967327464157154</v>
+        <v>0.9983115627721173</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2687,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="3">
-        <v>0.9986519497443404</v>
+        <v>0.9993702971232913</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="D164" s="3">
-        <v>0.976020558733264</v>
+        <v>0.9843966937076506</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2715,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="D165" s="2">
-        <v>0.6963355172807584</v>
+        <v>0.7330081984688608</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2729,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="3">
-        <v>0.9853066192472579</v>
+        <v>0.9909693369185737</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2743,7 +2743,7 @@
         <v>4</v>
       </c>
       <c r="D167" s="3">
-        <v>0.9886522575309622</v>
+        <v>0.9932315641168488</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2757,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="D168" s="2">
-        <v>0.4890179644280828</v>
+        <v>0.5219803889297225</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2771,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="3">
-        <v>0.9820495657978817</v>
+        <v>0.9887076075568939</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2785,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="D170" s="2">
-        <v>0.1422492102013481</v>
+        <v>0.1499813732745998</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2799,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="2">
-        <v>0.4730374449021851</v>
+        <v>0.5052413517460179</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2813,7 +2813,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>0.4730374449021851</v>
+        <v>0.5052413517460179</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2827,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="D173" s="3">
-        <v>0.9981351031561139</v>
+        <v>0.9990960755686779</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2841,7 +2841,7 @@
         <v>4</v>
       </c>
       <c r="D174" s="2">
-        <v>0.5607781490631958</v>
+        <v>0.5964085562562154</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2855,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="D175" s="3">
-        <v>0.976020558733264</v>
+        <v>0.9843966937076506</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2869,7 +2869,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="2">
-        <v>0.5449201545756626</v>
+        <v>0.5800712741711904</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="2">
-        <v>0.4730374449021851</v>
+        <v>0.5052413517460179</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2897,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="D178" s="3">
-        <v>0.9989671763967435</v>
+        <v>0.9995319261988331</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2911,7 +2911,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="3">
-        <v>0.9638527303813649</v>
+        <v>0.975321270797039</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2925,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="D180" s="3">
-        <v>0.9886522575309622</v>
+        <v>0.9932315641168488</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2939,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="D181" s="2">
-        <v>0.1710681254580999</v>
+        <v>0.1812649271151829</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2953,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="2">
-        <v>0.5607781490631958</v>
+        <v>0.5964085562562154</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2967,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="3">
-        <v>0.9944447885978392</v>
+        <v>0.9969488492601062</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2981,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="D184" s="2">
-        <v>0.3196458232738395</v>
+        <v>0.3421060118055891</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2995,7 +2995,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="3">
-        <v>0.9958482075081443</v>
+        <v>0.9977947060874721</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3009,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>0.2581164539685503</v>
+        <v>0.2757013482953644</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3023,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="2">
-        <v>0.5607781490631958</v>
+        <v>0.5964085562562154</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3037,7 +3037,7 @@
         <v>4</v>
       </c>
       <c r="D188" s="2">
-        <v>0.3196458232738395</v>
+        <v>0.3421060118055891</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3051,7 +3051,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="3">
-        <v>0.989792377365063</v>
+        <v>0.9939857946317532</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3065,7 +3065,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="3">
-        <v>0.976020558733264</v>
+        <v>0.9843966937076506</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3079,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="3">
-        <v>0.9986519497443404</v>
+        <v>0.9993702971232913</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3093,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="3">
-        <v>0.9470376586899714</v>
+        <v>0.9621791330125767</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3107,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="3">
-        <v>0.9886522575309622</v>
+        <v>0.9932315641168488</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3121,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="3">
-        <v>0.9981351031561139</v>
+        <v>0.9990960755686779</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3135,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="2">
-        <v>0.6153577278815512</v>
+        <v>0.6521062380945177</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3149,7 +3149,7 @@
         <v>4</v>
       </c>
       <c r="D196" s="3">
-        <v>0.997598394242234</v>
+        <v>0.9988018422520862</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3163,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="2">
-        <v>0.6963355172807584</v>
+        <v>0.7330081984688608</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3177,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="D198" s="3">
-        <v>0.9470376586899714</v>
+        <v>0.9621791330125767</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3191,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="3">
-        <v>0.9820495657978817</v>
+        <v>0.9887076075568939</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3205,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="2">
-        <v>0.5607781490631958</v>
+        <v>0.5964085562562154</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3219,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="D201" s="2">
-        <v>0.6963355172807584</v>
+        <v>0.7330081984688608</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3233,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="3">
-        <v>0.7562729113586507</v>
+        <v>0.7912809408888832</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3247,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="D203" s="3">
-        <v>0.7562729113586507</v>
+        <v>0.7912809408888832</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="3">
-        <v>0.8954125653169235</v>
+        <v>0.9190453450142089</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3275,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="3">
-        <v>0.9971080339683069</v>
+        <v>0.9985262294816725</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="3">
-        <v>0.9958482075081443</v>
+        <v>0.9977947060874721</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="D207" s="3">
-        <v>0.9886522575309622</v>
+        <v>0.9932315641168488</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3317,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="D208" s="3">
-        <v>0.9944447885978392</v>
+        <v>0.9969488492601062</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3331,7 +3331,7 @@
         <v>4</v>
       </c>
       <c r="D209" s="3">
-        <v>0.997598394242234</v>
+        <v>0.9988018422520862</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3345,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="D210" s="3">
-        <v>0.9551512566989823</v>
+        <v>0.9685944021920545</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3359,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="D211" s="3">
-        <v>0.9867349968671976</v>
+        <v>0.991943470219404</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3373,7 +3373,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="3">
-        <v>0.9990979924898076</v>
+        <v>0.9995974437854005</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3387,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="3">
-        <v>0.9995186504908519</v>
+        <v>0.9997999125874675</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3401,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="D214" s="3">
-        <v>0.9990979924898076</v>
+        <v>0.9995974437854005</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3415,7 +3415,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="3">
-        <v>0.9995186504908519</v>
+        <v>0.9997999125874675</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3429,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="D216" s="3">
-        <v>0.997598394242234</v>
+        <v>0.9988018422520862</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3443,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="3">
-        <v>0.9820495657978817</v>
+        <v>0.9887076075568939</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3457,7 +3457,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="3">
-        <v>0.8954125653169235</v>
+        <v>0.9190453450142089</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3470,8 +3470,8 @@
       <c r="C219" t="s">
         <v>4</v>
       </c>
-      <c r="D219" s="2">
-        <v>0.7102089292754747</v>
+      <c r="D219" s="3">
+        <v>0.7466300752718955</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3485,7 +3485,7 @@
         <v>4</v>
       </c>
       <c r="D220" s="3">
-        <v>0.9950501302148036</v>
+        <v>0.9973171620488843</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3499,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="3">
-        <v>0.9930336901001019</v>
+        <v>0.9960727478818722</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3513,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="D222" s="3">
-        <v>0.958815319565581</v>
+        <v>0.9714478547737025</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3527,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="3">
-        <v>0.9922160403114932</v>
+        <v>0.9955552523498487</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3541,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="D224" s="3">
-        <v>0.9922160403114932</v>
+        <v>0.9955552523498487</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3555,7 +3555,7 @@
         <v>4</v>
       </c>
       <c r="D225" s="3">
-        <v>0.9988191596609638</v>
+        <v>0.9994566448807296</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3569,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="3">
-        <v>0.9953301715589178</v>
+        <v>0.9974858270623279</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3583,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="D227" s="3">
-        <v>0.9638527303813649</v>
+        <v>0.975321270797039</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3597,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="D228" s="3">
-        <v>0.9654152824412836</v>
+        <v>0.9765101875331591</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3611,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="D229" s="3">
-        <v>0.9984633614216103</v>
+        <v>0.9992714305604017</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3625,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="D230" s="3">
-        <v>0.9963142152081234</v>
+        <v>0.9980687873335751</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3639,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="D231" s="3">
-        <v>0.9245431125907009</v>
+        <v>0.9438134200617083</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3653,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="3">
-        <v>0.9994450984782625</v>
+        <v>0.9997656039728133</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3667,7 +3667,7 @@
         <v>4</v>
       </c>
       <c r="D233" s="3">
-        <v>0.9983603114467018</v>
+        <v>0.999216804603942</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3681,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="3">
-        <v>0.9937745626491764</v>
+        <v>0.9965355998815352</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3695,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="D235" s="3">
-        <v>0.980202204040713</v>
+        <v>0.9874025178332472</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3709,7 +3709,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="3">
-        <v>0.9978821203291225</v>
+        <v>0.9989584508589984</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3723,7 +3723,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="3">
-        <v>0.9353062784746102</v>
+        <v>0.9526972343090035</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3737,7 +3737,7 @@
         <v>4</v>
       </c>
       <c r="D238" s="3">
-        <v>0.9886522575309622</v>
+        <v>0.9932315641168488</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3751,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="D239" s="3">
-        <v>0.9981351031561139</v>
+        <v>0.9990960755686779</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3765,7 +3765,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="3">
-        <v>0.9971080339683069</v>
+        <v>0.9985262294816725</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3779,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="D241" s="3">
-        <v>0.9981351031561139</v>
+        <v>0.9990960755686779</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3793,7 +3793,7 @@
         <v>4</v>
       </c>
       <c r="D242" s="3">
-        <v>0.980202204040713</v>
+        <v>0.9874025178332472</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3807,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="D243" s="3">
-        <v>0.9551512566989823</v>
+        <v>0.9685944021920545</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3821,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="3">
-        <v>0.9988191596609638</v>
+        <v>0.9994566448807296</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3835,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="D245" s="3">
-        <v>0.9886522575309622</v>
+        <v>0.9932315641168488</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3845,7 +3845,7 @@
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3855,7 +3855,7 @@
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/prediccion_test_Estadistica_2019_1.xlsx
+++ b/prediccion_test_Estadistica_2019_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="9">
   <si>
     <t>Nota1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Reprobados</t>
+  </si>
+  <si>
+    <t>Habiles</t>
+  </si>
+  <si>
+    <t>Salones</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3858,6 +3864,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="4">
+        <v>610</v>
+      </c>
+      <c r="B250" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prediccion_test_Estadistica_2019_1.xlsx
+++ b/prediccion_test_Estadistica_2019_1.xlsx
@@ -3877,7 +3877,7 @@
         <v>610</v>
       </c>
       <c r="B250" s="4">
-        <v>5</v>
+        <v>4.302922726343231</v>
       </c>
     </row>
   </sheetData>

--- a/prediccion_test_Estadistica_2019_1.xlsx
+++ b/prediccion_test_Estadistica_2019_1.xlsx
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>2.458785809966724E-05</v>
+        <v>3.781392040147491E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>0.9526972343090035</v>
+        <v>0.9353062784746102</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -467,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1925414591781511</v>
+        <v>0.1814514720924351</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9797915664802697</v>
+        <v>0.9697731052547023</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>0.9932315641168488</v>
+        <v>0.9886522575309622</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.989893554295268</v>
+        <v>0.9837478645288655</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>0.9363251759813538</v>
+        <v>0.9156129270721485</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -537,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>0.5964085562562154</v>
+        <v>0.5607781490631958</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>0.8463263946193638</v>
+        <v>0.8145770680592209</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -565,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>0.1063007846266277</v>
+        <v>0.1019007936671767</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>0.9438134200617083</v>
+        <v>0.9245431125907009</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>0.4302259976033963</v>
+        <v>0.4020244976592071</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>0.9859688449202149</v>
+        <v>0.9781959248318036</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2">
-        <v>0.05443143314613375</v>
+        <v>0.053514721376278</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3">
-        <v>0.965509146978353</v>
+        <v>0.9512291773223036</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>0.9887076075568939</v>
+        <v>0.9820495657978817</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>0.9621791330125767</v>
+        <v>0.9470376586899714</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>0.9939857946317532</v>
+        <v>0.989792377365063</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>0.8868109552286683</v>
+        <v>0.8588940608336206</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>0.2899011699607903</v>
+        <v>0.2712430303184087</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>0.9714478547737025</v>
+        <v>0.958815319565581</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>0.8827306738124052</v>
+        <v>0.854358482823158</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>0.6521062380945177</v>
+        <v>0.6153577278815512</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>0.965509146978353</v>
+        <v>0.9512291773223036</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>0.4467753221343606</v>
+        <v>0.417612487468055</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -817,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>0.6521062380945177</v>
+        <v>0.6153577278815512</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>0.2899011699607903</v>
+        <v>0.2712430303184087</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -845,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>0.2899011699607903</v>
+        <v>0.2712430303184087</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -859,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="3">
-        <v>0.9740822731668215</v>
+        <v>0.9622328391659665</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="2">
-        <v>0.5964085562562154</v>
+        <v>0.5607781490631958</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="3">
-        <v>0.9438134200617083</v>
+        <v>0.9245431125907009</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -901,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>0.9526972343090035</v>
+        <v>0.9353062784746102</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -915,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>0.7972579577769634</v>
+        <v>0.7625151020293195</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>0.8361650764835771</v>
+        <v>0.803664845959327</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="2">
-        <v>0.5386807346892822</v>
+        <v>0.5050161362668957</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>0.9874025178332472</v>
+        <v>0.980202204040713</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -971,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>0.9251603148724189</v>
+        <v>0.902502411196318</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -985,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>0.8031315054537883</v>
+        <v>0.7686685079538191</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="3">
-        <v>0.9125605757072628</v>
+        <v>0.8879565392906499</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="3">
-        <v>0.7972579577769634</v>
+        <v>0.7625151020293195</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2">
-        <v>0.6826012679644566</v>
+        <v>0.6456198005112008</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="3">
-        <v>0.8868109552286683</v>
+        <v>0.8588940608336206</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="3">
-        <v>0.9190453450142089</v>
+        <v>0.8954125653169235</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1068,8 +1068,8 @@
       <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="3">
-        <v>0.7466300752718955</v>
+      <c r="D47" s="2">
+        <v>0.7102089292754747</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="3">
-        <v>0.9923949524401126</v>
+        <v>0.9874030593433198</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="3">
-        <v>0.9685944021920545</v>
+        <v>0.9551512566989823</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="3">
-        <v>0.8463263946193638</v>
+        <v>0.8145770680592209</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2">
-        <v>0.73986509824985</v>
+        <v>0.7033093571865587</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="2">
-        <v>0.6125793061136797</v>
+        <v>0.5765391844893388</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1167,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="3">
-        <v>0.8463263946193638</v>
+        <v>0.8145770680592209</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="3">
-        <v>0.8785472898327068</v>
+        <v>0.8497259044546377</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1195,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="3">
-        <v>0.965509146978353</v>
+        <v>0.9512291773223036</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1209,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="3">
-        <v>0.8361650764835771</v>
+        <v>0.803664845959327</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1223,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="3">
-        <v>0.9389030359080831</v>
+        <v>0.9186737707328323</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="3">
-        <v>0.9251603148724189</v>
+        <v>0.902502411196318</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="3">
-        <v>0.8463263946193638</v>
+        <v>0.8145770680592209</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1265,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="3">
-        <v>0.8868109552286683</v>
+        <v>0.8588940608336206</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1279,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="3">
-        <v>0.8463263946193638</v>
+        <v>0.8145770680592209</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="3">
-        <v>0.8785472898327068</v>
+        <v>0.8497259044546377</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1307,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="3">
-        <v>0.8560614653948543</v>
+        <v>0.8251046477379721</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1321,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="3">
-        <v>0.975321270797039</v>
+        <v>0.9638527303813649</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1335,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="3">
-        <v>0.9389030359080831</v>
+        <v>0.9186737707328323</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="3">
-        <v>0.9484072046032442</v>
+        <v>0.9300839550750335</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1363,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="3">
-        <v>0.9125605757072628</v>
+        <v>0.8879565392906499</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="3">
-        <v>0.9484072046032442</v>
+        <v>0.9300839550750335</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="3">
-        <v>0.8463263946193638</v>
+        <v>0.8145770680592209</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="3">
-        <v>0.8089008320407465</v>
+        <v>0.7747319533764569</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="3">
-        <v>0.965509146978353</v>
+        <v>0.9512291773223036</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="D74" s="3">
-        <v>0.965509146978353</v>
+        <v>0.9512291773223036</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1461,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="3">
-        <v>0.8785472898327068</v>
+        <v>0.8497259044546377</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="3">
-        <v>0.8255775256339672</v>
+        <v>0.7923721036962524</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1489,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="3">
-        <v>0.9336634756160965</v>
+        <v>0.912466444556213</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1503,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="3">
-        <v>0.9056957539399209</v>
+        <v>0.8801280205423179</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1517,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="3">
-        <v>0.8361650764835771</v>
+        <v>0.803664845959327</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="D80" s="3">
-        <v>0.9960727478818722</v>
+        <v>0.9930336901001019</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1545,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="D81" s="3">
-        <v>0.9960727478818722</v>
+        <v>0.9930336901001019</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="3">
-        <v>0.9056957539399209</v>
+        <v>0.8801280205423179</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1573,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="3">
-        <v>0.9874025178332472</v>
+        <v>0.980202204040713</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3">
-        <v>0.9547324079004529</v>
+        <v>0.9378012313589812</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="D85" s="3">
-        <v>0.9923949524401126</v>
+        <v>0.9874030593433198</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1615,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="3">
-        <v>0.9621791330125767</v>
+        <v>0.9470376586899714</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1629,7 +1629,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="3">
-        <v>0.785201311892319</v>
+        <v>0.7499432005623822</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="D88" s="3">
-        <v>0.9874025178332472</v>
+        <v>0.980202204040713</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1657,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="3">
-        <v>0.9363251759813538</v>
+        <v>0.9156129270721485</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="3">
-        <v>0.9621791330125767</v>
+        <v>0.9470376586899714</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="3">
-        <v>0.9887076075568939</v>
+        <v>0.9820495657978817</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1699,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="3">
-        <v>0.9843966937076506</v>
+        <v>0.976020558733264</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1713,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="D93" s="3">
-        <v>0.9585912725863067</v>
+        <v>0.9425653890175757</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="3">
-        <v>0.9817560841949077</v>
+        <v>0.9724175173762095</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1741,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="3">
-        <v>0.9566965390856942</v>
+        <v>0.9402204836040656</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1755,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="3">
-        <v>0.9190453450142089</v>
+        <v>0.8954125653169235</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1769,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="3">
-        <v>0.9056957539399209</v>
+        <v>0.8801280205423179</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="D98" s="3">
-        <v>0.9336634756160965</v>
+        <v>0.912466444556213</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1797,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="3">
-        <v>0.9056957539399209</v>
+        <v>0.8801280205423179</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1811,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="D100" s="3">
-        <v>0.9585912725863067</v>
+        <v>0.9425653890175757</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1825,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="3">
-        <v>0.9874025178332472</v>
+        <v>0.980202204040713</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="3">
-        <v>0.9932315641168488</v>
+        <v>0.9886522575309622</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1853,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="3">
-        <v>0.9960727478818722</v>
+        <v>0.9930336901001019</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1867,7 +1867,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="3">
-        <v>0.8255775256339672</v>
+        <v>0.7923721036962524</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1881,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="3">
-        <v>0.9974858270623279</v>
+        <v>0.9953301715589178</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1895,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="3">
-        <v>0.9438134200617083</v>
+        <v>0.9245431125907009</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1909,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="3">
-        <v>0.9585912725863067</v>
+        <v>0.9425653890175757</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1923,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="3">
-        <v>0.9887076075568939</v>
+        <v>0.9820495657978817</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="2">
-        <v>0.6125793061136797</v>
+        <v>0.5765391844893388</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1951,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="2">
-        <v>0.5386807346892822</v>
+        <v>0.5050161362668957</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1965,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="3">
-        <v>0.9484072046032442</v>
+        <v>0.9300839550750335</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1979,7 +1979,7 @@
         <v>4</v>
       </c>
       <c r="D112" s="3">
-        <v>0.9994566448807296</v>
+        <v>0.9988191596609638</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1993,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="D113" s="3">
-        <v>0.8785472898327068</v>
+        <v>0.8497259044546377</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="D114" s="3">
-        <v>0.8742600877924054</v>
+        <v>0.8449961534162698</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="3">
-        <v>0.9994566448807296</v>
+        <v>0.9988191596609638</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="D116" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="3">
-        <v>0.9859688449202149</v>
+        <v>0.9781959248318036</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2063,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="3">
-        <v>0.9309164189178994</v>
+        <v>0.9092332274306307</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2077,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="3">
-        <v>0.8946654300357095</v>
+        <v>0.8676752710119495</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2091,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="D120" s="2">
-        <v>0.7330081984688608</v>
+        <v>0.6963355172807584</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2105,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="D121" s="2">
-        <v>0.6674923282749895</v>
+        <v>0.6305899133307044</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2119,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="D122" s="3">
-        <v>0.9997258686136191</v>
+        <v>0.9993612708479044</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2133,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="D123" s="3">
-        <v>0.9389030359080831</v>
+        <v>0.9186737707328323</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2147,7 +2147,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="3">
-        <v>0.9817560841949077</v>
+        <v>0.9724175173762095</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2161,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="3">
-        <v>0.9998662696058391</v>
+        <v>0.999664877552721</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="3">
-        <v>0.9887076075568939</v>
+        <v>0.9820495657978817</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2189,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2203,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="D128" s="3">
-        <v>0.9826757245983665</v>
+        <v>0.9736656455581831</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2217,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="2">
-        <v>0.6826012679644566</v>
+        <v>0.6456198005112008</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2231,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="D130" s="3">
-        <v>0.9526972343090035</v>
+        <v>0.9353062784746102</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2245,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="2">
-        <v>0.2899011699607903</v>
+        <v>0.2712430303184087</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2259,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="3">
-        <v>0.8031315054537883</v>
+        <v>0.7686685079538191</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2273,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="D133" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2287,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="3">
-        <v>0.965509146978353</v>
+        <v>0.9512291773223036</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2301,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>0.6125793061136797</v>
+        <v>0.5765391844893388</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2315,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="D136" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2329,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="D137" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2343,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="D138" s="3">
-        <v>0.9585912725863067</v>
+        <v>0.9425653890175757</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2357,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="3">
-        <v>0.9859688449202149</v>
+        <v>0.9781959248318036</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2371,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="D140" s="3">
-        <v>0.8560614653948543</v>
+        <v>0.8251046477379721</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2385,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="2">
-        <v>0.07862401717640022</v>
+        <v>0.07618414290171494</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2399,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="D142" s="2">
-        <v>0.009160288088007174</v>
+        <v>0.009808734260457364</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2413,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="3">
-        <v>0.9989584508589984</v>
+        <v>0.9978821203291225</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2427,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="D144" s="3">
-        <v>0.9685944021920545</v>
+        <v>0.9551512566989823</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2441,7 +2441,7 @@
         <v>4</v>
       </c>
       <c r="D145" s="3">
-        <v>0.9389030359080831</v>
+        <v>0.9186737707328323</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2455,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="D146" s="2">
-        <v>0.2899011699607903</v>
+        <v>0.2712430303184087</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2469,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="2">
-        <v>0.3192842122353947</v>
+        <v>0.2984556761153903</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2483,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3">
-        <v>0.9797915664802697</v>
+        <v>0.9697731052547023</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="D149" s="3">
-        <v>0.9251603148724189</v>
+        <v>0.902502411196318</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2511,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="3">
-        <v>0.9969488492601062</v>
+        <v>0.9944447885978392</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2525,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="D151" s="3">
-        <v>0.8868109552286683</v>
+        <v>0.8588940608336206</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2539,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="D152" s="3">
-        <v>0.9990960755686779</v>
+        <v>0.9981351031561139</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="D153" s="3">
-        <v>0.9843966937076506</v>
+        <v>0.976020558733264</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2567,7 +2567,7 @@
         <v>4</v>
       </c>
       <c r="D154" s="3">
-        <v>0.8868109552286683</v>
+        <v>0.8588940608336206</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2581,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="3">
-        <v>0.9484072046032442</v>
+        <v>0.9300839550750335</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2595,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="3">
-        <v>0.9969488492601062</v>
+        <v>0.9944447885978392</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2609,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="3">
-        <v>0.9621791330125767</v>
+        <v>0.9470376586899714</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2623,7 +2623,7 @@
         <v>4</v>
       </c>
       <c r="D158" s="3">
-        <v>0.8463263946193638</v>
+        <v>0.8145770680592209</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2637,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="3">
-        <v>0.9251603148724189</v>
+        <v>0.902502411196318</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2651,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="D160" s="3">
-        <v>0.9969488492601062</v>
+        <v>0.9944447885978392</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2665,7 +2665,7 @@
         <v>4</v>
       </c>
       <c r="D161" s="3">
-        <v>0.9776505450131342</v>
+        <v>0.9669219190424031</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2679,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="D162" s="3">
-        <v>0.9983115627721173</v>
+        <v>0.9967327464157154</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2693,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="3">
-        <v>0.9993702971232913</v>
+        <v>0.9986519497443404</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2707,7 +2707,7 @@
         <v>4</v>
       </c>
       <c r="D164" s="3">
-        <v>0.9843966937076506</v>
+        <v>0.976020558733264</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2721,7 +2721,7 @@
         <v>4</v>
       </c>
       <c r="D165" s="2">
-        <v>0.7330081984688608</v>
+        <v>0.6963355172807584</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2735,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="3">
-        <v>0.9909693369185737</v>
+        <v>0.9853066192472579</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2749,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="D167" s="3">
-        <v>0.9932315641168488</v>
+        <v>0.9886522575309622</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2763,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="D168" s="2">
-        <v>0.5219803889297225</v>
+        <v>0.4890179644280828</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2777,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="3">
-        <v>0.9887076075568939</v>
+        <v>0.9820495657978817</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2791,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="D170" s="2">
-        <v>0.1499813732745998</v>
+        <v>0.1422492102013481</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2805,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="2">
-        <v>0.5052413517460179</v>
+        <v>0.4730374449021851</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2819,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>0.5052413517460179</v>
+        <v>0.4730374449021851</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2833,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="D173" s="3">
-        <v>0.9990960755686779</v>
+        <v>0.9981351031561139</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2847,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="D174" s="2">
-        <v>0.5964085562562154</v>
+        <v>0.5607781490631958</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2861,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="D175" s="3">
-        <v>0.9843966937076506</v>
+        <v>0.976020558733264</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2875,7 +2875,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="2">
-        <v>0.5800712741711904</v>
+        <v>0.5449201545756626</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2889,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="2">
-        <v>0.5052413517460179</v>
+        <v>0.4730374449021851</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2903,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="D178" s="3">
-        <v>0.9995319261988331</v>
+        <v>0.9989671763967435</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2917,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="3">
-        <v>0.975321270797039</v>
+        <v>0.9638527303813649</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2931,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="D180" s="3">
-        <v>0.9932315641168488</v>
+        <v>0.9886522575309622</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="D181" s="2">
-        <v>0.1812649271151829</v>
+        <v>0.1710681254580999</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2959,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="2">
-        <v>0.5964085562562154</v>
+        <v>0.5607781490631958</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2973,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="3">
-        <v>0.9969488492601062</v>
+        <v>0.9944447885978392</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2987,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="D184" s="2">
-        <v>0.3421060118055891</v>
+        <v>0.3196458232738395</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3001,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="3">
-        <v>0.9977947060874721</v>
+        <v>0.9958482075081443</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3015,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>0.2757013482953644</v>
+        <v>0.2581164539685503</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3029,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="2">
-        <v>0.5964085562562154</v>
+        <v>0.5607781490631958</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3043,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="D188" s="2">
-        <v>0.3421060118055891</v>
+        <v>0.3196458232738395</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3057,7 +3057,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="3">
-        <v>0.9939857946317532</v>
+        <v>0.989792377365063</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3071,7 +3071,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="3">
-        <v>0.9843966937076506</v>
+        <v>0.976020558733264</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3085,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="3">
-        <v>0.9993702971232913</v>
+        <v>0.9986519497443404</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3099,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="3">
-        <v>0.9621791330125767</v>
+        <v>0.9470376586899714</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3113,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="3">
-        <v>0.9932315641168488</v>
+        <v>0.9886522575309622</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3127,7 +3127,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="3">
-        <v>0.9990960755686779</v>
+        <v>0.9981351031561139</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3141,7 +3141,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="2">
-        <v>0.6521062380945177</v>
+        <v>0.6153577278815512</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3155,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="D196" s="3">
-        <v>0.9988018422520862</v>
+        <v>0.997598394242234</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="2">
-        <v>0.7330081984688608</v>
+        <v>0.6963355172807584</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3183,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="D198" s="3">
-        <v>0.9621791330125767</v>
+        <v>0.9470376586899714</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3197,7 +3197,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="3">
-        <v>0.9887076075568939</v>
+        <v>0.9820495657978817</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3211,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="2">
-        <v>0.5964085562562154</v>
+        <v>0.5607781490631958</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3225,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="D201" s="2">
-        <v>0.7330081984688608</v>
+        <v>0.6963355172807584</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="3">
-        <v>0.7912809408888832</v>
+        <v>0.7562729113586507</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3253,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="D203" s="3">
-        <v>0.7912809408888832</v>
+        <v>0.7562729113586507</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3267,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="3">
-        <v>0.9190453450142089</v>
+        <v>0.8954125653169235</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3281,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="3">
-        <v>0.9985262294816725</v>
+        <v>0.9971080339683069</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3295,7 +3295,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="3">
-        <v>0.9977947060874721</v>
+        <v>0.9958482075081443</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3309,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="D207" s="3">
-        <v>0.9932315641168488</v>
+        <v>0.9886522575309622</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3323,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="D208" s="3">
-        <v>0.9969488492601062</v>
+        <v>0.9944447885978392</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3337,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="D209" s="3">
-        <v>0.9988018422520862</v>
+        <v>0.997598394242234</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="D210" s="3">
-        <v>0.9685944021920545</v>
+        <v>0.9551512566989823</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3365,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="D211" s="3">
-        <v>0.991943470219404</v>
+        <v>0.9867349968671976</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3379,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="3">
-        <v>0.9995974437854005</v>
+        <v>0.9990979924898076</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="3">
-        <v>0.9997999125874675</v>
+        <v>0.9995186504908519</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3407,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="D214" s="3">
-        <v>0.9995974437854005</v>
+        <v>0.9990979924898076</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3421,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="3">
-        <v>0.9997999125874675</v>
+        <v>0.9995186504908519</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D216" s="3">
-        <v>0.9988018422520862</v>
+        <v>0.997598394242234</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3449,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="3">
-        <v>0.9887076075568939</v>
+        <v>0.9820495657978817</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3463,7 +3463,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="3">
-        <v>0.9190453450142089</v>
+        <v>0.8954125653169235</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3476,8 +3476,8 @@
       <c r="C219" t="s">
         <v>4</v>
       </c>
-      <c r="D219" s="3">
-        <v>0.7466300752718955</v>
+      <c r="D219" s="2">
+        <v>0.7102089292754747</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3491,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="D220" s="3">
-        <v>0.9973171620488843</v>
+        <v>0.9950501302148036</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3505,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="3">
-        <v>0.9960727478818722</v>
+        <v>0.9930336901001019</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3519,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="D222" s="3">
-        <v>0.9714478547737025</v>
+        <v>0.958815319565581</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3533,7 +3533,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="3">
-        <v>0.9955552523498487</v>
+        <v>0.9922160403114932</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3547,7 +3547,7 @@
         <v>4</v>
       </c>
       <c r="D224" s="3">
-        <v>0.9955552523498487</v>
+        <v>0.9922160403114932</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3561,7 +3561,7 @@
         <v>4</v>
       </c>
       <c r="D225" s="3">
-        <v>0.9994566448807296</v>
+        <v>0.9988191596609638</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3575,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="3">
-        <v>0.9974858270623279</v>
+        <v>0.9953301715589178</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3589,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="D227" s="3">
-        <v>0.975321270797039</v>
+        <v>0.9638527303813649</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3603,7 +3603,7 @@
         <v>4</v>
       </c>
       <c r="D228" s="3">
-        <v>0.9765101875331591</v>
+        <v>0.9654152824412836</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3617,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="D229" s="3">
-        <v>0.9992714305604017</v>
+        <v>0.9984633614216103</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3631,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="D230" s="3">
-        <v>0.9980687873335751</v>
+        <v>0.9963142152081234</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3645,7 +3645,7 @@
         <v>4</v>
       </c>
       <c r="D231" s="3">
-        <v>0.9438134200617083</v>
+        <v>0.9245431125907009</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3659,7 +3659,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="3">
-        <v>0.9997656039728133</v>
+        <v>0.9994450984782625</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3673,7 +3673,7 @@
         <v>4</v>
       </c>
       <c r="D233" s="3">
-        <v>0.999216804603942</v>
+        <v>0.9983603114467018</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3687,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="3">
-        <v>0.9965355998815352</v>
+        <v>0.9937745626491764</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3701,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="D235" s="3">
-        <v>0.9874025178332472</v>
+        <v>0.980202204040713</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3715,7 +3715,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="3">
-        <v>0.9989584508589984</v>
+        <v>0.9978821203291225</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3729,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="3">
-        <v>0.9526972343090035</v>
+        <v>0.9353062784746102</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="D238" s="3">
-        <v>0.9932315641168488</v>
+        <v>0.9886522575309622</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3757,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="D239" s="3">
-        <v>0.9990960755686779</v>
+        <v>0.9981351031561139</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3771,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="3">
-        <v>0.9985262294816725</v>
+        <v>0.9971080339683069</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3785,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="D241" s="3">
-        <v>0.9990960755686779</v>
+        <v>0.9981351031561139</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3799,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="D242" s="3">
-        <v>0.9874025178332472</v>
+        <v>0.980202204040713</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3813,7 +3813,7 @@
         <v>4</v>
       </c>
       <c r="D243" s="3">
-        <v>0.9685944021920545</v>
+        <v>0.9551512566989823</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3827,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="3">
-        <v>0.9994566448807296</v>
+        <v>0.9988191596609638</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3841,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="D245" s="3">
-        <v>0.9932315641168488</v>
+        <v>0.9886522575309622</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3851,7 +3851,7 @@
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3861,7 +3861,7 @@
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3874,10 +3874,10 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="4">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B250" s="4">
-        <v>4.302922726343231</v>
+        <v>4.32408464139082</v>
       </c>
     </row>
   </sheetData>
